--- a/output/onkologia/2023/sheets/year_2023.xlsx
+++ b/output/onkologia/2023/sheets/year_2023.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,159 +481,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>7.622580645161291</v>
+        <v>53.31040773585462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9161290322580645</v>
+        <v>54.4954213893596</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>2.467857142857143</v>
+        <v>41.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>41.89999999999999</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>4.393548387096774</v>
+        <v>31.4</v>
       </c>
       <c r="C4" t="n">
-        <v>2.780645161290323</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>5.926666666666667</v>
+        <v>52</v>
       </c>
       <c r="C5" t="n">
-        <v>3.45</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>6.603225806451612</v>
+        <v>39.6</v>
       </c>
       <c r="C6" t="n">
-        <v>3.451612903225806</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.346666666666667</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5.070967741935483</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.741935483870968</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10.51290322580645</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6.025806451612904</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6.906666666666666</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4.270967741935484</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.096666666666667</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4.983333333333333</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.970967741935484</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.103225806451613</v>
+        <v>32.6</v>
       </c>
     </row>
   </sheetData>
